--- a/EAGLE files/SLA_1500_CAM_CONN_V2.xlsx
+++ b/EAGLE files/SLA_1500_CAM_CONN_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\EAGLE files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{045CE506-E4FF-44FF-B38F-0DC2051F5D2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7A98D6AC-73BC-4B24-9310-CD12AB0DCF68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A99240-4676-4F76-B069-0CE058984624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B7A9C74-9B54-497E-8FF1-EC7259233663}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>J6</t>
   </si>
   <si>
-    <t>5VDC Power, Serial and I2C Communication With Pixhawk</t>
-  </si>
-  <si>
-    <t>Auxillary Serial Communications for Sightline Debugging</t>
-  </si>
-  <si>
     <t>50-Pin Digital Connector, Connects Directly to OEM-1500 J4</t>
   </si>
   <si>
@@ -90,12 +84,6 @@
     <t xml:space="preserve">MOLEX 51021-0400 / CAB-0401 </t>
   </si>
   <si>
-    <t>Auxillary I2C Bus to Sightline</t>
-  </si>
-  <si>
-    <t>Auxillary 5VDC Power In</t>
-  </si>
-  <si>
     <t>MOLEX 53261-0371</t>
   </si>
   <si>
@@ -103,6 +91,18 @@
   </si>
   <si>
     <t xml:space="preserve">MOLEX 51021-0300 / CAB-0302 </t>
+  </si>
+  <si>
+    <t>5VDC Power, Serial and *I2C Communication With Pixhawk</t>
+  </si>
+  <si>
+    <t>Auxiliary Serial Communications for Sightline Debugging</t>
+  </si>
+  <si>
+    <t>Auxiliary I2C Bus to Sightline</t>
+  </si>
+  <si>
+    <t>Auxiliary 5VDC Power In</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -528,41 +528,41 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
